--- a/DaiPhatDat.WebHost/Areas/Task/Content/Templates/TemplateProjectReportWeekly.xlsx
+++ b/DaiPhatDat.WebHost/Areas/Task/Content/Templates/TemplateProjectReportWeekly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCode\E-Office-New\E-Office\E-Office\Web\SurePortal.WebHost\Areas\Task\Content\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectOfficeGit\ProjectOffice\DaiPhatDat.WebHost\Areas\Task\Content\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A23CD6-5641-4E2D-B202-F89BD8178DC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Tuần hiện tại" sheetId="1" r:id="rId1"/>
@@ -41,9 +40,6 @@
     <t>Mức độ quan trọng : {{ trackingCrucial }}</t>
   </si>
   <si>
-    <t>Cá nhân : {{ userName }}</t>
-  </si>
-  <si>
     <t>Người nhận</t>
   </si>
   <si>
@@ -105,12 +101,15 @@
   </si>
   <si>
     <t>[[%Field:AppraisePercentFinishText%]]</t>
+  </si>
+  <si>
+    <t>Báo cáo cho : {{ userName }}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,7 +241,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -276,19 +275,25 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,18 +301,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -316,18 +309,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Percent 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,23 +405,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -470,23 +440,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,11 +615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,30 +635,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -720,7 +673,7 @@
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -782,92 +735,101 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:20" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:20" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="E11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="G11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="H12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="I12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -967,11 +929,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,30 +949,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -1025,7 +987,7 @@
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1087,92 +1049,101 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
+      <c r="A9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:20" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="G11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="H12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="I12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
